--- a/01_Production_quantities/Non-ferrous Metals/Copper_production.xlsx
+++ b/01_Production_quantities/Non-ferrous Metals/Copper_production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\ANNEX\01_Production_quantities\INF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\Publication\ANNEX\01_Production_quantities\Non-ferrous Metals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F101D-7BDB-40ED-81F5-3AE25B68E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13082BB9-8C08-4FFA-ADD0-429765F304AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="1920" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>DR Congo</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Korea</t>
   </si>
   <si>
     <t>United States of America</t>
@@ -248,6 +242,12 @@
       </rPr>
       <t>1st ed. Metals and Minerals Report (2023).</t>
     </r>
+  </si>
+  <si>
+    <t>Country / Region</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -612,47 +612,47 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -670,9 +670,9 @@
         <v>945.60699999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -690,9 +690,9 @@
         <v>15.875</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -710,9 +710,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>48.97</v>
@@ -730,9 +730,9 @@
         <v>15.177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>33.299999999999997</v>
@@ -750,9 +750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>828.7</v>
@@ -770,9 +770,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>910.97</v>
@@ -790,9 +790,9 @@
         <v>1186.6590000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>361</v>
@@ -810,9 +810,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>361</v>
@@ -830,9 +830,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>290.10000000000002</v>
@@ -850,9 +850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>7035.6</v>
@@ -870,9 +870,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -890,9 +890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -910,9 +910,9 @@
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>125.5</v>
@@ -930,9 +930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1246.0999999999999</v>
@@ -950,9 +950,9 @@
         <v>1575.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>327.82100000000003</v>
@@ -970,9 +970,9 @@
         <v>66.257000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1699.421</v>
@@ -990,9 +990,9 @@
         <v>1644.671</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1010,9 +1010,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1030,9 +1030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>284.8</v>
@@ -1050,9 +1050,9 @@
         <v>70.738</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>123.5</v>
@@ -1070,9 +1070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1090,9 +1090,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1110,9 +1110,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>152.1</v>
@@ -1130,9 +1130,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>560.4</v>
@@ -1150,9 +1150,9 @@
         <v>70.738</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>481.5</v>
@@ -1170,9 +1170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>1169.5</v>
@@ -1190,9 +1190,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1210,9 +1210,9 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>204.1</v>
@@ -1230,9 +1230,9 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -1250,9 +1250,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>85.4</v>
@@ -1270,9 +1270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>295.5</v>
@@ -1290,9 +1290,9 @@
         <v>16.608000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>286.2</v>
@@ -1310,9 +1310,9 @@
         <v>179.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <v>213.767</v>
@@ -1330,9 +1330,9 @@
         <v>17.071000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1350,9 +1350,9 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1370,9 +1370,9 @@
         <v>14.175000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>12.5</v>
@@ -1390,9 +1390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>170.9</v>
@@ -1410,9 +1410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1430,9 +1430,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>15.1</v>
@@ -1450,9 +1450,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>422.26700000000011</v>
@@ -1470,9 +1470,9 @@
         <v>99.445999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>316.8</v>
@@ -1490,9 +1490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1510,9 +1510,9 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>461.86500000000001</v>
@@ -1530,9 +1530,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <v>75</v>
@@ -1550,9 +1550,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1570,9 +1570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>853.66499999999996</v>
@@ -1590,9 +1590,9 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>8.8309999999999995</v>
@@ -1610,9 +1610,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>327.31400000000002</v>
@@ -1630,9 +1630,9 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>789</v>
@@ -1650,9 +1650,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1670,9 +1670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>140</v>
@@ -1690,9 +1690,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>1265.145</v>
@@ -1710,9 +1710,9 @@
         <v>43.900000000000013</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>530</v>
@@ -1730,9 +1730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>536</v>
@@ -1750,9 +1750,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <v>311.2</v>
@@ -1783,19 +1783,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
